--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-capitated-member-months-extension.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-capitated-member-months-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -357,8 +357,8 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uds-plus-cmm-1:All values should be greater than or equal to 0 {($this.value &gt;= 0)}</t>
   </si>
 </sst>
 </file>
